--- a/biology/Zoologie/Île_Entreprise/Île_Entreprise.xlsx
+++ b/biology/Zoologie/Île_Entreprise/Île_Entreprise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%8Ele_Entreprise</t>
+          <t>Île_Entreprise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'île Entreprise est une île de l'Antarctique de 1,5 mile de long située à la pointe au nord-est de l'île Nansen sur la côte ouest de la terre de Graham. Elle a été nommée île Nansen dans un premier temps par l'explorateur belge Adrien de Gerlache lors de l'expédition du navire Belgica de 1897-1899. Ce fut au début de 1900 un important site de chasse à la baleine. Elle fut alors renommée ainsi en hommage à l'industrie de pêche à la baleine entre 1916 et 1930.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%8Ele_Entreprise</t>
+          <t>Île_Entreprise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site actuel regorge de détails et d'indices de l'activité de la chasse à la baleine du début du XXe siècle. On y observe un ancien baleinier échoué à la suite d'un incendie. Il reste de nombreuses têtes de harpon à l'intérieur de la coque. Cette épave héberge une colonie de Sternes couronnées (Sterna vittata). Sur les rives des chaînes d'amarrage, des bollards ainsi que des canots.
 </t>
